--- a/Datos/Anuario2024/031002_AparcamientoViaPublica.xlsx
+++ b/Datos/Anuario2024/031002_AparcamientoViaPublica.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2 map1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="117" r:id="rId1"/>
+    <sheet name="1" sheetId="119" r:id="rId2"/>
+    <sheet name="2" sheetId="120" r:id="rId3"/>
+    <sheet name="2 map1" sheetId="121" r:id="rId4"/>
+    <sheet name="3" sheetId="123" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -73,103 +79,257 @@
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
     <definedName name="_R7_2">#REF!</definedName>
+    <definedName name="_R8_2" localSheetId="2">'2'!$A$1:$B$2</definedName>
+    <definedName name="_R8_2" localSheetId="4">'3'!$A$1:$B$2</definedName>
     <definedName name="_R8_3">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R8_2" localSheetId="2">'2'!$A$1:$B$2</definedName>
-    <definedName name="_R8_2" localSheetId="4">'3'!$A$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Motocicletas</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Plazas</t>
+  </si>
+  <si>
+    <t>Zona no ORA</t>
+  </si>
+  <si>
+    <t>Libres</t>
+  </si>
+  <si>
+    <t>Carga y Descarga</t>
+  </si>
+  <si>
+    <t>Plazas diversidad funcional</t>
+  </si>
+  <si>
+    <t>Zona ORA Azul</t>
+  </si>
+  <si>
+    <t>% ocupación</t>
+  </si>
+  <si>
+    <t>Intensidad de uso por día y plaza</t>
+  </si>
+  <si>
+    <t>Zona ORA Naranja</t>
+  </si>
+  <si>
+    <t>Intensidad de uso por día y plaza residentes</t>
+  </si>
+  <si>
+    <t>% ocupación no residentes</t>
+  </si>
+  <si>
+    <t>Bonos mensuales residentes emitidos</t>
+  </si>
+  <si>
+    <t>Plazas libres estimadas</t>
+  </si>
+  <si>
+    <t>Diversidad funcional</t>
+  </si>
+  <si>
+    <t>En cordón</t>
+  </si>
+  <si>
+    <t>En batería</t>
+  </si>
+  <si>
+    <t>Zona ORA Verde</t>
+  </si>
+  <si>
+    <t>Residentes Zona Ora</t>
+  </si>
+  <si>
+    <t>Distintivos residentes emitidos</t>
+  </si>
+  <si>
+    <t>Bonos anuales residentes emitidos</t>
+  </si>
+  <si>
+    <t>1. Plazas de estacionamiento en la vía pública. 2023</t>
+  </si>
+  <si>
+    <t>2. Plazas de estacionamiento regulado de pago por distrito. 2023</t>
+  </si>
+  <si>
+    <t>3. Plazas de estacionamiento no regulado por distrito. 2023</t>
+  </si>
+  <si>
+    <t>PLAZAS DE APARCAMIENTO EN LA VÍA PÚBLICA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -245,162 +405,149 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6096000" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12088,7 +12235,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15883,8 +16030,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16791,1400 +16938,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="56.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>PLAZAS DE APARCAMIENTO EN LA VÍA PÚBLICA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.140625" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>1. Plazas de estacionamiento en la vía pública. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Zona no ORA</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>Libres</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10">
         <v>134628</v>
       </c>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t>Carga y Descarga</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
         <v>2705</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>Plazas diversidad funcional</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
         <v>2884</v>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
         <v>13226</v>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="22" t="inlineStr">
-        <is>
-          <t>Zona ORA Azul</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>Plazas</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
         <v>4909</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t>% ocupación</t>
-        </is>
-      </c>
-      <c r="B11" s="26" t="n">
-        <v>0.5793</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t>Intensidad de uso por día y plaza</t>
-        </is>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>0.0482</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4.82E-2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="22" t="inlineStr">
-        <is>
-          <t>Zona ORA Naranja</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>Plazas</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
         <v>1838</v>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="21" t="inlineStr">
-        <is>
-          <t>% ocupación no residentes</t>
-        </is>
-      </c>
-      <c r="B15" s="26" t="n">
-        <v>0.1175</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>Intensidad de uso por día y plaza residentes</t>
-        </is>
-      </c>
-      <c r="B16" s="15" t="n">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="15">
         <v>0.95</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="22" t="inlineStr">
-        <is>
-          <t>Zona ORA Verde</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>Plazas</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
         <v>711</v>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="22" t="inlineStr">
-        <is>
-          <t>Residentes Zona Ora</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>Distintivos residentes emitidos</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4">
         <v>11901</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="21" t="inlineStr">
-        <is>
-          <t>Bonos anuales residentes emitidos</t>
-        </is>
-      </c>
-      <c r="B21" s="24" t="n">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="24">
         <v>2673</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="20" t="inlineStr">
-        <is>
-          <t>Bonos mensuales residentes emitidos</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4">
         <v>22247</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="15" t="n"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="95"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="4"/>
+    <col min="1" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>2. Plazas de estacionamiento regulado de pago por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="17" t="n"/>
-      <c r="B2" s="4" t="n"/>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Zona ORA Azul</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Zona ORA Naranja</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Zona ORA Verde</t>
-        </is>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
         <v>4909</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>1838</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>711</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
         <v>97</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>409</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>119</v>
       </c>
-      <c r="F5" s="9" t="n"/>
+      <c r="F5" s="9"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>1212</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>995</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>303</v>
       </c>
-      <c r="F6" s="9" t="n"/>
+      <c r="F6" s="9"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
         <v>864</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>434</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>289</v>
       </c>
-      <c r="F7" s="9" t="n"/>
+      <c r="F7" s="9"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>292</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="n"/>
+      <c r="F8" s="9"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
         <v>129</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="n"/>
+      <c r="F9" s="9"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>1006</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="n"/>
+      <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="n">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
         <v>253</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="n"/>
+      <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>136</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="n"/>
+      <c r="F12" s="9"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="n">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
         <v>191</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="9" t="n"/>
+      <c r="F13" s="9"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
         <v>206</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="9" t="n"/>
+      <c r="F14" s="9"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="19" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="n">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
         <v>23</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="9" t="n"/>
+      <c r="F15" s="9"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
         <v>394</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="n"/>
+      <c r="F16" s="9"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="n">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>0</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="n"/>
+      <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="18" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
         <v>80</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="9" t="n"/>
+      <c r="F18" s="9"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="10" t="n">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
         <v>0</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="9" t="n"/>
+      <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="18" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="9" t="n"/>
+      <c r="F20" s="9"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="10" t="n">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="10">
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="n"/>
+      <c r="F21" s="9"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="n"/>
+      <c r="F22" s="9"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="10" t="n">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="10">
         <v>0</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="n"/>
+      <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="B27" s="9" t="n"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="94"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="7"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>3. Plazas de estacionamiento no regulado por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="17" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="9" t="n"/>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>Plazas libres estimadas</t>
-        </is>
-      </c>
-      <c r="E3" s="33" t="inlineStr">
-        <is>
-          <t>Carga y Descarga</t>
-        </is>
-      </c>
-      <c r="F3" s="33" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="G3" s="33" t="inlineStr">
-        <is>
-          <t>Diversidad funcional</t>
-        </is>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" s="25" t="inlineStr">
-        <is>
-          <t>En cordón</t>
-        </is>
-      </c>
-      <c r="D4" s="25" t="inlineStr">
-        <is>
-          <t>En batería</t>
-        </is>
-      </c>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
         <v>134628</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>62454</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>72174</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>2705</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8">
         <v>13226</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="8">
         <v>2884</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10">
         <v>171</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>688</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
         <v>942</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>740</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>202</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>365</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>1569</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
         <v>3940</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>1127</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>2813</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>242</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>1137</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>139</v>
       </c>
-      <c r="H8" s="23" t="n"/>
+      <c r="H8" s="23"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>7236</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>3984</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>3252</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>108</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>702</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B10" s="10" t="n">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
         <v>7306</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>3138</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>4168</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>129</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="10">
         <v>717</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="10">
         <v>158</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
         <v>5179</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>1743</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>3436</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>151</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>924</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="n">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10">
         <v>8638</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="10">
         <v>3514</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>5124</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>123</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="10">
         <v>681</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
         <v>11082</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>5440</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>5642</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>146</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>818</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="n">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10">
         <v>7627</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="10">
         <v>3366</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>4261</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>151</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="10">
         <v>591</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="10">
         <v>173</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
         <v>18986</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>6113</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>12873</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>186</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>1181</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="4">
         <v>305</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="n">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
         <v>12526</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>7525</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>5001</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>218</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="10">
         <v>1069</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="10">
         <v>298</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="n">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
         <v>9551</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>4837</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>4714</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>202</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>618</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B18" s="10" t="n">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
         <v>8658</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="10">
         <v>2457</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>6201</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>124</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="10">
         <v>688</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="10">
         <v>138</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
         <v>3774</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>1879</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>1895</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>97</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>420</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B20" s="10" t="n">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10">
         <v>7127</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="10">
         <v>4112</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="10">
         <v>3015</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="10">
         <v>97</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="10">
         <v>569</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="n">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
         <v>7881</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>4261</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>3620</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>104</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>430</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="19" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="n">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
         <v>1686</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="11">
         <v>1398</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="11">
         <v>288</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="10">
         <v>4</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="10">
         <v>50</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B23" s="13" t="n">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13">
         <v>3089</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="13">
         <v>2354</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="13">
         <v>735</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>42</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="4">
         <v>250</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B24" s="11" t="n">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
         <v>9400</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="11">
         <v>4466</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="11">
         <v>4934</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="10">
         <v>45</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="10">
         <v>124</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València.</t>
-        </is>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>